--- a/budget.xlsx
+++ b/budget.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\研修\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\source\repos\Budget\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
   <si>
     <t>家計簿</t>
     <rPh sb="0" eb="3">
@@ -359,6 +359,27 @@
   </si>
   <si>
     <t>budget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>month</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CHAR(6)</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>該当月管理用</t>
+    <rPh sb="0" eb="3">
+      <t>ガイトウツキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -685,13 +706,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
@@ -737,13 +758,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>76200</xdr:colOff>
       <xdr:row>5</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>373380</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>45720</xdr:rowOff>
@@ -789,13 +810,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>7</xdr:row>
       <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>381000</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -841,13 +862,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>9</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>10</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -893,13 +914,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>11</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>12</xdr:row>
       <xdr:rowOff>60960</xdr:rowOff>
@@ -945,13 +966,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>83820</xdr:colOff>
       <xdr:row>13</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>99060</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>22860</xdr:rowOff>
@@ -997,13 +1018,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>7</xdr:col>
+      <xdr:col>8</xdr:col>
       <xdr:colOff>91440</xdr:colOff>
       <xdr:row>18</xdr:row>
       <xdr:rowOff>30480</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
+      <xdr:col>9</xdr:col>
       <xdr:colOff>388620</xdr:colOff>
       <xdr:row>19</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -1053,15 +1074,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>586740</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>281940</xdr:colOff>
+      <xdr:colOff>342900</xdr:colOff>
       <xdr:row>20</xdr:row>
-      <xdr:rowOff>144780</xdr:rowOff>
+      <xdr:rowOff>45720</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1070,8 +1091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5067300" y="1371600"/>
-          <a:ext cx="2087880" cy="2171700"/>
+          <a:off x="2049780" y="1219200"/>
+          <a:ext cx="2156460" cy="2209800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1387,38 +1408,38 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:J24"/>
+  <dimension ref="B1:K24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="12.44140625" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="17.21875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="12.88671875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="G4" t="s">
+    <row r="4" spans="2:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H4" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="2:10" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
         <v>15</v>
       </c>
@@ -1429,26 +1450,26 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="G6" t="s">
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
+      <c r="H6" t="s">
         <v>42</v>
       </c>
-      <c r="J6" t="s">
+      <c r="K6" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" t="s">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G8" t="s">
+      <c r="H8" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>2</v>
       </c>
@@ -1456,18 +1477,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G10" t="s">
+      <c r="H10" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>4</v>
       </c>
@@ -1475,21 +1496,21 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" t="s">
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G12" t="s">
+      <c r="H12" t="s">
         <v>45</v>
       </c>
-      <c r="J12" t="s">
+      <c r="K12" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>6</v>
       </c>
@@ -1497,18 +1518,18 @@
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="G14" t="s">
+      <c r="H14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
         <v>8</v>
       </c>
@@ -1516,7 +1537,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>9</v>
       </c>
@@ -1579,10 +1600,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E11"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1702,6 +1723,20 @@
         <v>31</v>
       </c>
     </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>55</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/budget.xlsx
+++ b/budget.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18348" windowHeight="8448" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18348" windowHeight="8448"/>
   </bookViews>
   <sheets>
     <sheet name="表示" sheetId="1" r:id="rId1"/>
@@ -69,16 +69,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>服・美容</t>
-    <rPh sb="0" eb="1">
-      <t>フク</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ビヨウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>教養</t>
     <rPh sb="0" eb="2">
       <t>キョウヨウ</t>
@@ -234,10 +224,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>ｐayment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>日付</t>
     <rPh sb="0" eb="2">
       <t>ヒヅケ</t>
@@ -350,10 +336,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>money</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>DATETIME</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -379,6 +361,27 @@
     </rPh>
     <rPh sb="5" eb="6">
       <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>money</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>洋服・美容</t>
+    <rPh sb="0" eb="2">
+      <t>ヨウフク</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>フク</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ビヨウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -1410,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1426,36 +1429,36 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="2:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="K6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -1463,10 +1466,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -1474,7 +1477,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.2">
@@ -1482,10 +1485,10 @@
         <v>3</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -1493,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.2">
@@ -1501,80 +1504,80 @@
         <v>5</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="K12" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B20" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.2">
@@ -1583,10 +1586,10 @@
     <row r="23" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25"/>
     <row r="24" spans="2:4" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D24" s="1"/>
     </row>
@@ -1602,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1614,127 +1617,127 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" t="s">
+        <v>35</v>
+      </c>
+      <c r="C5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E5" t="s">
         <v>24</v>
-      </c>
-      <c r="B5" t="s">
-        <v>37</v>
-      </c>
-      <c r="C5" t="s">
-        <v>48</v>
-      </c>
-      <c r="E5" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E6" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B9" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>30</v>
+        <v>54</v>
       </c>
       <c r="B10" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E10" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>28</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" t="s">
         <v>29</v>
-      </c>
-      <c r="B11" t="s">
-        <v>51</v>
-      </c>
-      <c r="C11" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C12" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="E12" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/budget.xlsx
+++ b/budget.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="18348" windowHeight="8448"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18348" windowHeight="8448" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="表示" sheetId="1" r:id="rId1"/>
@@ -324,10 +324,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>detail</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>not null</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -337,10 +333,6 @@
   </si>
   <si>
     <t>DATETIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>budget</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -369,10 +361,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>payment</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>洋服・美容</t>
     <rPh sb="0" eb="2">
       <t>ヨウフク</t>
@@ -383,6 +371,18 @@
     <rPh sb="3" eb="5">
       <t>ビヨウ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>detail</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>payment</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>budget</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1413,8 +1413,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1515,7 +1515,7 @@
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -1542,7 +1542,7 @@
     </row>
     <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>18</v>
@@ -1550,7 +1550,7 @@
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>18</v>
@@ -1558,7 +1558,7 @@
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B18" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>18</v>
@@ -1566,7 +1566,7 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.2">
       <c r="B19" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>18</v>
@@ -1605,8 +1605,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1620,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1639,7 +1639,7 @@
         <v>35</v>
       </c>
       <c r="C5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E5" t="s">
         <v>24</v>
@@ -1647,13 +1647,13 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>45</v>
+        <v>53</v>
       </c>
       <c r="B6" t="s">
         <v>33</v>
       </c>
       <c r="C6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E6" t="s">
         <v>30</v>
@@ -1672,13 +1672,13 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B8" t="s">
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E8" t="s">
         <v>25</v>
@@ -1686,13 +1686,13 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
         <v>36</v>
       </c>
       <c r="C9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>26</v>
@@ -1706,7 +1706,7 @@
         <v>33</v>
       </c>
       <c r="C10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E10" t="s">
         <v>27</v>
@@ -1717,10 +1717,10 @@
         <v>28</v>
       </c>
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E11" t="s">
         <v>29</v>
@@ -1728,16 +1728,16 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" t="s">
         <v>50</v>
-      </c>
-      <c r="B12" t="s">
-        <v>51</v>
-      </c>
-      <c r="C12" t="s">
-        <v>46</v>
-      </c>
-      <c r="E12" t="s">
-        <v>52</v>
       </c>
     </row>
   </sheetData>

--- a/budget.xlsx
+++ b/budget.xlsx
@@ -188,10 +188,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>id</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>管理番号</t>
     <rPh sb="0" eb="4">
       <t>カンリバンゴウ</t>
@@ -383,6 +379,10 @@
   </si>
   <si>
     <t>budget</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>id</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1429,7 +1429,7 @@
         <v>0</v>
       </c>
       <c r="H1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" spans="2:11" x14ac:dyDescent="0.2">
@@ -1439,7 +1439,7 @@
     </row>
     <row r="4" spans="2:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="H4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="2:11" ht="14.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
@@ -1455,10 +1455,10 @@
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="K6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.2">
@@ -1469,7 +1469,7 @@
         <v>18</v>
       </c>
       <c r="H8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.2">
@@ -1488,7 +1488,7 @@
         <v>18</v>
       </c>
       <c r="H10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.2">
@@ -1507,15 +1507,15 @@
         <v>18</v>
       </c>
       <c r="H12" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="K12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>18</v>
@@ -1529,7 +1529,7 @@
         <v>18</v>
       </c>
       <c r="H14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="2:11" x14ac:dyDescent="0.2">
@@ -1606,7 +1606,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -1620,7 +1620,7 @@
         <v>22</v>
       </c>
       <c r="B1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
@@ -1633,111 +1633,111 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
+        <v>55</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" t="s">
         <v>23</v>
-      </c>
-      <c r="B5" t="s">
-        <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>45</v>
-      </c>
-      <c r="E5" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="E7" t="s">
         <v>31</v>
-      </c>
-      <c r="B7" t="s">
-        <v>34</v>
-      </c>
-      <c r="E7" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>46</v>
+      </c>
+      <c r="C11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E11" t="s">
         <v>28</v>
-      </c>
-      <c r="B11" t="s">
-        <v>47</v>
-      </c>
-      <c r="C11" t="s">
-        <v>45</v>
-      </c>
-      <c r="E11" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
+        <v>47</v>
+      </c>
+      <c r="B12" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" t="s">
         <v>49</v>
-      </c>
-      <c r="C12" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" t="s">
-        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/budget.xlsx
+++ b/budget.xlsx
@@ -1606,7 +1606,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
